--- a/public/template/nhom khach hang.xlsx
+++ b/public/template/nhom khach hang.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Good\Desktop\nhập liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\larose\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,45 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Mô tả</t>
   </si>
   <si>
-    <t>Nhóm cha</t>
-  </si>
-  <si>
-    <t>Gia dụng đức</t>
-  </si>
-  <si>
-    <t>Nước hoa</t>
-  </si>
-  <si>
-    <t>Mỹ phẩm</t>
-  </si>
-  <si>
-    <t>Kiko</t>
-  </si>
-  <si>
-    <t>Thực phẩm chức năng</t>
-  </si>
-  <si>
-    <t>YVES ROCHER</t>
-  </si>
-  <si>
-    <t>DÀNH CHO MẸ</t>
-  </si>
-  <si>
-    <t>DÀNH CHO BÉ</t>
-  </si>
-  <si>
-    <t>SỮA</t>
-  </si>
-  <si>
-    <t>KHÁC</t>
-  </si>
-  <si>
     <t>Tên nhóm</t>
+  </si>
+  <si>
+    <t>Khách lẻ</t>
+  </si>
+  <si>
+    <t>Khách đại lý</t>
+  </si>
+  <si>
+    <t>Khách mua với số lượng ít: 1 đến 10 sản phẩm</t>
+  </si>
+  <si>
+    <t>Khách mua với số lượng lớn: 20 đến 100 sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -111,12 +90,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,85 +415,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
